--- a/VT_ModelNL_DMD_V01.xlsx
+++ b/VT_ModelNL_DMD_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Shell_168\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Shell model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689BE62C-387F-494A-AB98-54D22FB9612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F96398-6985-4556-A66E-873C68C0B2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -866,6 +866,21 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>ELC_IND_FIN</t>
+  </si>
+  <si>
+    <t>Electricity - Industry Final Energy</t>
+  </si>
+  <si>
+    <t>ELC_IND_FIN_DEM</t>
+  </si>
+  <si>
+    <t>Electricity - Industry Final Energy Demand</t>
+  </si>
+  <si>
+    <t>ELC_IND_RES</t>
   </si>
 </sst>
 </file>
@@ -3663,7 +3678,7 @@
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3690,10 +3705,6 @@
     </xf>
     <xf numFmtId="184" fontId="43" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="44" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4534,7 +4545,6 @@
     <cellStyle name="Neutralne 9 3" xfId="787" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="788" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="no dec" xfId="789" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="790" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
     <cellStyle name="Normal - Style1 2" xfId="1247" xr:uid="{304C81AE-6CFC-4CDB-92B8-8D0CB4F6FB63}"/>
     <cellStyle name="Normal 10" xfId="791" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
@@ -4559,6 +4569,7 @@
     <cellStyle name="Normal GHG-Shade" xfId="806" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="807" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normale_B2020" xfId="808" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="809" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
     <cellStyle name="Normalny 10 2" xfId="810" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
     <cellStyle name="Normalny 10 2 2" xfId="811" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
@@ -5548,7 +5559,7 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5567,11 +5578,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -5601,101 +5612,101 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="64.5" thickBot="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="37" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="14"/>
@@ -5721,10 +5732,21 @@
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="1"/>
@@ -5741,10 +5763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5760,11 +5782,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -5797,89 +5819,89 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="38.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="64.5" thickBot="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5894,7 +5916,7 @@
         <v>85</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>27</v>
@@ -5907,6 +5929,33 @@
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5920,8 +5969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5929,14 +5978,14 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="9"/>
@@ -5955,62 +6004,62 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="31.9" customHeight="1">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="31.9" customHeight="1" thickBot="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6021,12 +6070,12 @@
       </c>
       <c r="C8" s="13" t="str">
         <f>SEC_Processes!E8</f>
-        <v>Electricity - Final Energy Demand</v>
-      </c>
-      <c r="F8" s="21">
+        <v>Electricity - Industry Final Energy Demand</v>
+      </c>
+      <c r="F8" s="20">
         <v>1</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6047,8 +6096,47 @@
         <v>ELC_FIN</v>
       </c>
     </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>ELC_IND_FIN_DEM</v>
+      </c>
+      <c r="D12" s="13">
+        <f>SEC_Comm!C11</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="D13" s="13" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_GRID</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="D14" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="D15" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="D16" s="13"/>
+      <c r="E16" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELC_IND_FIN</v>
+      </c>
+    </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="18"/>
+      <c r="D17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6060,8 +6148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6077,10 +6165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="C1" s="37"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="3" spans="2:13" ht="18">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="9"/>
@@ -6092,115 +6180,132 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>2023</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>2025</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>2030</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>2035</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>2040</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <v>2045</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>2050</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="36.75" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
       <c r="B8" s="15" t="str">
         <f>SEC_Comm!C9</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <f>125*3.6</f>
         <v>450</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <f>135*3.6</f>
         <v>486</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <f>157*3.6</f>
         <v>565.20000000000005</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <f>180*3.6</f>
         <v>648</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <f>230*3.6</f>
         <v>828</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <f>260*3.6</f>
         <v>936</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <f>300*3.6</f>
         <v>1080</v>
       </c>
       <c r="L8" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="B9" s="17" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELC_IND_FIN</v>
+      </c>
+      <c r="C9" s="31">
+        <v>100</v>
+      </c>
+      <c r="D9" s="32">
+        <v>12</v>
+      </c>
+      <c r="E9" s="32">
+        <v>150</v>
+      </c>
+      <c r="F9" s="32">
+        <v>200</v>
+      </c>
+      <c r="G9" s="32">
+        <v>300</v>
+      </c>
+      <c r="H9" s="32">
+        <v>400</v>
+      </c>
+      <c r="I9" s="32">
+        <v>500</v>
+      </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1"/>
     <row r="12" spans="2:13">
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <f>C8/3.6</f>
         <v>125</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="39"/>
       <c r="I12">
         <f>I8/3.6</f>
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="31"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="C14" s="31"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="2:13" ht="26.25" customHeight="1"/>
     <row r="16" spans="2:13" ht="26.25" customHeight="1"/>
@@ -6374,18 +6479,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6407,14 +6512,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6428,4 +6525,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ModelNL_DMD_V01.xlsx
+++ b/VT_ModelNL_DMD_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Shell model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Folder\Jasiek\Shell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F96398-6985-4556-A66E-873C68C0B2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE672E2-90CF-4787-8244-6E8DBAA672B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -5558,26 +5558,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="17.5">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="64.5" thickBot="1">
+    <row r="7" spans="2:9" ht="63" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
@@ -5765,19 +5765,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5794,7 +5794,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" ht="13">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -5847,7 +5847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="38.25">
+    <row r="6" spans="2:10" ht="37.5">
       <c r="B6" s="26" t="s">
         <v>43</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="64.5" thickBot="1">
+    <row r="7" spans="2:10" ht="63" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
@@ -5969,29 +5969,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18">
+    <row r="2" spans="2:7" ht="17.5">
       <c r="B2" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="9"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" ht="13">
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="E3" s="3"/>
@@ -6101,10 +6101,7 @@
         <f>SEC_Processes!D9</f>
         <v>ELC_IND_FIN_DEM</v>
       </c>
-      <c r="D12" s="13">
-        <f>SEC_Comm!C11</f>
-        <v>0</v>
-      </c>
+      <c r="D12" s="13"/>
       <c r="F12" s="20">
         <v>1</v>
       </c>
@@ -6148,38 +6145,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="5" width="8.54296875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" ht="13">
       <c r="C1" s="36"/>
     </row>
-    <row r="3" spans="2:13" ht="18">
+    <row r="3" spans="2:13" ht="17.5">
       <c r="B3" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" ht="13">
       <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" ht="13">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -6290,7 +6287,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" ht="13">
       <c r="B12" s="39">
         <f>C8/3.6</f>
         <v>125</v>
@@ -6335,6 +6332,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -6478,35 +6490,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6528,9 +6515,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_ModelNL_DMD_V01.xlsx
+++ b/VT_ModelNL_DMD_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Folder\Jasiek\Shell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Pliki GitHub\LocalEnShProject-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE672E2-90CF-4787-8244-6E8DBAA672B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ADEEFB-D6A6-4CE0-A33B-4EAABA48F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -880,7 +880,7 @@
     <t>Electricity - Industry Final Energy Demand</t>
   </si>
   <si>
-    <t>ELC_IND_RES</t>
+    <t>ELC_IND_RES_SUM</t>
   </si>
 </sst>
 </file>
@@ -3678,7 +3678,7 @@
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3730,7 +3730,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="99" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="43" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3744,12 +3743,10 @@
     <xf numFmtId="184" fontId="43" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1263">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5035,14 +5032,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>65835</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>184077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125297</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5065,8 +5062,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2643188"/>
-          <a:ext cx="6538632" cy="3763005"/>
+          <a:off x="0" y="2982456"/>
+          <a:ext cx="6540758" cy="3764358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5558,26 +5555,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" customWidth="1"/>
-    <col min="11" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.5">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="63" thickBot="1">
+    <row r="7" spans="2:9" ht="64.5" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
@@ -5690,23 +5687,23 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="14"/>
@@ -5769,15 +5766,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" customWidth="1"/>
-    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5794,7 +5791,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="2:10" ht="13">
+    <row r="3" spans="2:10">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -5847,7 +5844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="37.5">
+    <row r="6" spans="2:10" ht="38.25">
       <c r="B6" s="26" t="s">
         <v>43</v>
       </c>
@@ -5876,7 +5873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="63" thickBot="1">
+    <row r="7" spans="2:10" ht="64.5" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
@@ -5969,29 +5966,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
-    <col min="3" max="3" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.5">
+    <row r="2" spans="2:7" ht="18">
       <c r="B2" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="9"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:7" ht="13">
+    <row r="3" spans="2:7">
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="E3" s="3"/>
@@ -6116,21 +6113,19 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="D14" s="13" t="s">
-        <v>84</v>
+      <c r="D14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="D15" s="13" t="s">
-        <v>92</v>
+      <c r="D15" s="13"/>
+      <c r="E15" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELC_IND_FIN</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="D16" s="13"/>
-      <c r="E16" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELC_IND_FIN</v>
-      </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="13"/>
@@ -6143,62 +6138,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="5" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="15" max="15" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="13">
-      <c r="C1" s="36"/>
+    <row r="1" spans="2:13">
+      <c r="C1" s="35"/>
     </row>
-    <row r="3" spans="2:13" ht="17.5">
+    <row r="3" spans="2:13" ht="18">
       <c r="B3" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="5" spans="2:13" ht="13">
+    <row r="5" spans="2:13">
       <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="2:13" ht="13">
+    <row r="6" spans="2:13">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>2023</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>2025</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>2030</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>2035</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>2040</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="32">
         <v>2045</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="32">
         <v>2050</v>
       </c>
     </row>
@@ -6206,53 +6201,53 @@
       <c r="B7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
       <c r="B8" s="15" t="str">
         <f>SEC_Comm!C9</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="C8" s="35">
-        <f>125*3.6</f>
-        <v>450</v>
-      </c>
-      <c r="D8" s="35">
-        <f>135*3.6</f>
-        <v>486</v>
-      </c>
-      <c r="E8" s="35">
-        <f>157*3.6</f>
-        <v>565.20000000000005</v>
-      </c>
-      <c r="F8" s="35">
-        <f>180*3.6</f>
-        <v>648</v>
-      </c>
-      <c r="G8" s="35">
-        <f>230*3.6</f>
-        <v>828</v>
-      </c>
-      <c r="H8" s="35">
-        <f>260*3.6</f>
-        <v>936</v>
-      </c>
-      <c r="I8" s="35">
-        <f>300*3.6</f>
-        <v>1080</v>
+      <c r="C8" s="39">
+        <f>C12-C9</f>
+        <v>360</v>
+      </c>
+      <c r="D8" s="39">
+        <f>D12-D9</f>
+        <v>388.8</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" ref="E8:I8" si="0">E12-E9</f>
+        <v>452.16</v>
+      </c>
+      <c r="F8" s="39">
+        <f t="shared" si="0"/>
+        <v>518.4</v>
+      </c>
+      <c r="G8" s="39">
+        <f t="shared" si="0"/>
+        <v>662.4</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="0"/>
+        <v>748.8</v>
+      </c>
+      <c r="I8" s="39">
+        <f t="shared" si="0"/>
+        <v>864</v>
       </c>
       <c r="L8" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="33" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6262,63 +6257,85 @@
         <v>ELC_IND_FIN</v>
       </c>
       <c r="C9" s="31">
-        <v>100</v>
-      </c>
-      <c r="D9" s="32">
-        <v>12</v>
-      </c>
-      <c r="E9" s="32">
-        <v>150</v>
-      </c>
-      <c r="F9" s="32">
-        <v>200</v>
-      </c>
-      <c r="G9" s="32">
-        <v>300</v>
-      </c>
-      <c r="H9" s="32">
-        <v>400</v>
-      </c>
-      <c r="I9" s="32">
-        <v>500</v>
+        <f>0.2*C12</f>
+        <v>90</v>
+      </c>
+      <c r="D9" s="31">
+        <f>0.2*D12</f>
+        <v>97.2</v>
+      </c>
+      <c r="E9" s="31">
+        <f>0.2*E12</f>
+        <v>113.04000000000002</v>
+      </c>
+      <c r="F9" s="31">
+        <f>0.2*F12</f>
+        <v>129.6</v>
+      </c>
+      <c r="G9" s="31">
+        <f>0.2*G12</f>
+        <v>165.60000000000002</v>
+      </c>
+      <c r="H9" s="31">
+        <f>0.2*H12</f>
+        <v>187.20000000000002</v>
+      </c>
+      <c r="I9" s="31">
+        <f>0.2*I12</f>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="12" spans="2:13" ht="13">
-      <c r="B12" s="39">
-        <f>C8/3.6</f>
-        <v>125</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="I12">
-        <f>I8/3.6</f>
-        <v>300</v>
+    <row r="12" spans="2:13">
+      <c r="C12" s="34">
+        <f>125*3.6</f>
+        <v>450</v>
+      </c>
+      <c r="D12" s="34">
+        <f>135*3.6</f>
+        <v>486</v>
+      </c>
+      <c r="E12" s="34">
+        <f>157*3.6</f>
+        <v>565.20000000000005</v>
+      </c>
+      <c r="F12" s="34">
+        <f>180*3.6</f>
+        <v>648</v>
+      </c>
+      <c r="G12" s="34">
+        <f>230*3.6</f>
+        <v>828</v>
+      </c>
+      <c r="H12" s="34">
+        <f>260*3.6</f>
+        <v>936</v>
+      </c>
+      <c r="I12" s="34">
+        <f>300*3.6</f>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="C13" s="30"/>
     </row>
-    <row r="14" spans="2:13">
-      <c r="C14" s="30"/>
+    <row r="14" spans="2:13" ht="26.25" customHeight="1"/>
+    <row r="15" spans="2:13" ht="26.25" customHeight="1"/>
+    <row r="16" spans="2:13" ht="25.5" customHeight="1">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
-    <row r="15" spans="2:13" ht="26.25" customHeight="1"/>
-    <row r="16" spans="2:13" ht="26.25" customHeight="1"/>
-    <row r="17" spans="3:12" ht="25.5" customHeight="1">
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+    <row r="17" spans="3:3" ht="26.25" customHeight="1">
+      <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:12" ht="26.25" customHeight="1"/>
-    <row r="20" spans="3:12" ht="25.5" customHeight="1"/>
-    <row r="26" spans="3:12" ht="16.5" customHeight="1"/>
+    <row r="18" spans="3:3" ht="26.25" customHeight="1"/>
+    <row r="19" spans="3:3" ht="25.5" customHeight="1"/>
+    <row r="25" spans="3:3" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="1">
     <mergeCell ref="C7:I7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6332,21 +6349,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -6490,15 +6498,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6514,7 +6523,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6530,4 +6539,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>